--- a/Volvo Documenten en Workflows/Planning activiteiten Go-live SF sept 2024.xlsx
+++ b/Volvo Documenten en Workflows/Planning activiteiten Go-live SF sept 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\3. Consultancy\VOLVO\Volvo Documenten en Workflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597313CE-8817-4FB4-B95A-D63A924849E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E645E-2238-40B7-BC91-F11F891D8B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{10CC7D5B-2D8F-4C33-A231-0EE8ED74BBDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{10CC7D5B-2D8F-4C33-A231-0EE8ED74BBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Acties" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>tc={41AC3BC8-5731-414A-9F16-B231E7566EDA}</author>
   </authors>
   <commentList>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{4E64327A-4564-4C56-B39A-AB3FF42145E6}">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{4E64327A-4564-4C56-B39A-AB3FF42145E6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
     Subdocumenten</t>
       </text>
     </comment>
-    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{41AC3BC8-5731-414A-9F16-B231E7566EDA}">
+    <comment ref="C29" authorId="1" shapeId="0" xr:uid="{41AC3BC8-5731-414A-9F16-B231E7566EDA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="504">
   <si>
     <t>Activiteit</t>
   </si>
@@ -891,9 +891,6 @@
     <t>Nieuwe testomgeving AFAS - SF</t>
   </si>
   <si>
-    <t>Processen</t>
-  </si>
-  <si>
     <t>Welke payload?</t>
   </si>
   <si>
@@ -933,9 +930,6 @@
     <t xml:space="preserve">Verlenging stageovereenkomst </t>
   </si>
   <si>
-    <t xml:space="preserve">Hoe verlengen we oproepcontracten van chaufeurs? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Functiewijziging </t>
   </si>
   <si>
@@ -957,12 +951,6 @@
     <t xml:space="preserve">Salarisverhoging leerling monteur opleiding en leeftijd </t>
   </si>
   <si>
-    <t xml:space="preserve">CAO verhoging - geen brief </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salary review proces - brief in SF </t>
-  </si>
-  <si>
     <t xml:space="preserve">Uitdienstreding </t>
   </si>
   <si>
@@ -1041,9 +1029,6 @@
     <t xml:space="preserve">Categorie ook in brief? </t>
   </si>
   <si>
-    <t>Alleen wijziging functietitel</t>
-  </si>
-  <si>
     <t xml:space="preserve">wijzigen functietitel </t>
   </si>
   <si>
@@ -1072,9 +1057,6 @@
   </si>
   <si>
     <t>De jeugdschalen zijn ingebouwd in SF - maar niet in payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Nourdine meebezig - import salaris zonder triggeren workflow - brief </t>
   </si>
   <si>
     <t xml:space="preserve">Niet via AFAS - brief met beoordeling bekijken in SF </t>
@@ -1392,19 +1374,10 @@
     <t>(Nieuwe) manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Wijziging functieschaal en salaris? (= dit functiewijziging zonder wijziging functietitel) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alleen salariswijziging - zelfde schaal (verzwaring functie in schaal) </t>
-  </si>
-  <si>
     <t>Per X XXXX XXXX ontvang jij in het kader van de functiewijziging een verhoging van € XXXX bruto per maand. Deze verhoging wordt als toeslag op jouw salaris uitbetaald.</t>
   </si>
   <si>
     <t>Bonus / acting allowance</t>
-  </si>
-  <si>
-    <t>Demotie- functiewijziging zonder verhoging - met handmatige toevoegingen</t>
   </si>
   <si>
     <t xml:space="preserve">Hierbij bevestigen wij dat jouw huidige arbeidsovereenkomst voor bepaalde tijd bij 
@@ -1569,15 +1542,6 @@
     <t xml:space="preserve">Brief ondertekenen beide partijen </t>
   </si>
   <si>
-    <t xml:space="preserve">Urenwijziging </t>
-  </si>
-  <si>
-    <t>Brief aanpassingen van uren oud naar uren nieuw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workflow bestaat nog niet </t>
-  </si>
-  <si>
     <t>geen proeftijd bij zelfde functie</t>
   </si>
   <si>
@@ -1611,9 +1575,6 @@
     <t>Alleen Company car - aparte bevestiging - zonder functiewijziging</t>
   </si>
   <si>
-    <t>geen document en geen workflow - voorkeur signaal in AFAS - check of dit komt in SF</t>
-  </si>
-  <si>
     <t>Nog testen in de testomgeving</t>
   </si>
   <si>
@@ -1674,9 +1635,6 @@
     <t xml:space="preserve">Altijd ondertekenen vanuit beide partijen </t>
   </si>
   <si>
-    <t>SF - Volvo - Urenwijziging</t>
-  </si>
-  <si>
     <t>SF - Volvo - Stageovereenkomst</t>
   </si>
   <si>
@@ -1729,13 +1687,58 @@
   </si>
   <si>
     <t>SF - Volvo - Bevestiging Uitdienst Dynamisch</t>
+  </si>
+  <si>
+    <t>Create Applicant</t>
+  </si>
+  <si>
+    <t>Bestaande applicant</t>
+  </si>
+  <si>
+    <t>Aanvullende gegevens opvragen</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Optie 1: WN</t>
+  </si>
+  <si>
+    <t>Optie 2: WG BT</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Same. Voorwaarde = Geen Stagiar, Geen oproep, einddatum contract is 31-12-xx</t>
+  </si>
+  <si>
+    <t>Pensioen</t>
+  </si>
+  <si>
+    <t>Vervroegd pensioen</t>
+  </si>
+  <si>
+    <t>Salarisregel moet niet worden aangemaakt als salaris hetzelfde is</t>
+  </si>
+  <si>
+    <t>Check als je datum kan toevoegen voor alleen de auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alleen salariswijziging </t>
+  </si>
+  <si>
+    <t>Documentatie voor workflows, documenten en vrije velden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,14 +1882,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -1899,8 +1894,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1994,6 +2002,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,7 +2241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2355,7 +2387,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -2412,24 +2443,45 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2438,10 +2490,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,23 +2523,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2487,8 +2533,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2765,15 +2816,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>594052</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3605,10 +3656,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B28" dT="2024-09-09T15:11:55.03" personId="{FDF2B1AB-662C-4EF0-A64F-7DD0E6A82E51}" id="{4E64327A-4564-4C56-B39A-AB3FF42145E6}">
+  <threadedComment ref="C28" dT="2024-09-09T15:11:55.03" personId="{FDF2B1AB-662C-4EF0-A64F-7DD0E6A82E51}" id="{4E64327A-4564-4C56-B39A-AB3FF42145E6}">
     <text>Subdocumenten</text>
   </threadedComment>
-  <threadedComment ref="B29" dT="2024-09-09T15:11:41.66" personId="{FDF2B1AB-662C-4EF0-A64F-7DD0E6A82E51}" id="{41AC3BC8-5731-414A-9F16-B231E7566EDA}">
+  <threadedComment ref="C29" dT="2024-09-09T15:11:41.66" personId="{FDF2B1AB-662C-4EF0-A64F-7DD0E6A82E51}" id="{41AC3BC8-5731-414A-9F16-B231E7566EDA}">
     <text>Subdocumenten?</text>
   </threadedComment>
 </ThreadedComments>
@@ -3776,14 +3827,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="80">
+      <c r="B12" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="79">
         <v>45544</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E12" s="71"/>
     </row>
@@ -3848,10 +3899,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="80" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -4050,10 +4101,10 @@
       <c r="A37" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="79" t="s">
         <v>241</v>
       </c>
       <c r="D37" s="21" t="s">
@@ -4338,10 +4389,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="80"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4526,12 +4577,12 @@
       <c r="C78" s="63"/>
       <c r="D78" s="22"/>
       <c r="E78" s="66" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C79" s="63"/>
       <c r="D79" s="22"/>
@@ -4548,7 +4599,7 @@
         <v>245</v>
       </c>
       <c r="E80" s="66" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -4562,12 +4613,12 @@
         <v>246</v>
       </c>
       <c r="E81" s="66" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C82" s="63">
         <v>45539</v>
@@ -4576,24 +4627,24 @@
         <v>246</v>
       </c>
       <c r="E82" s="66" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C83" s="63">
         <v>45544</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E83" s="66"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C84" s="63"/>
       <c r="D84" s="22"/>
@@ -4601,20 +4652,20 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C85" s="63"/>
       <c r="D85" s="22"/>
       <c r="E85" s="66" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" s="82" t="s">
         <v>354</v>
-      </c>
-      <c r="C86" s="83" t="s">
-        <v>360</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="66"/>
@@ -4623,36 +4674,36 @@
       <c r="B87" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="82" t="s">
-        <v>331</v>
+      <c r="C87" s="81" t="s">
+        <v>325</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>225</v>
       </c>
       <c r="E87" s="66" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>367</v>
-      </c>
-      <c r="C88" s="83">
+        <v>361</v>
+      </c>
+      <c r="C88" s="82">
         <v>45575</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E88" s="66"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="83"/>
+      <c r="C89" s="82"/>
       <c r="D89" s="22"/>
       <c r="E89" s="66"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C90" s="63"/>
       <c r="D90" s="22"/>
@@ -4703,10 +4754,10 @@
         <v>45541</v>
       </c>
       <c r="D99" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E99" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4717,7 +4768,7 @@
         <v>45541</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4795,18 +4846,18 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C108" s="63">
         <v>45538</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C109" s="63">
         <v>45544</v>
@@ -4817,7 +4868,7 @@
         <v>194</v>
       </c>
       <c r="C110" s="62" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E110" t="s">
         <v>195</v>
@@ -4825,24 +4876,24 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C111" s="62" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E111" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C112" s="62" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D112" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,17 +4920,17 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="64" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="64"/>
       <c r="B118" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D118" s="22"/>
     </row>
@@ -4901,84 +4952,84 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D128" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E128" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C129" s="65">
         <v>45566</v>
       </c>
       <c r="D129" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E129" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C131" s="62" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E132" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B135" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B146" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5232,10 +5283,10 @@
       </c>
     </row>
     <row r="6" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
@@ -5249,24 +5300,24 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="112" t="s">
+      <c r="N6" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="115" t="s">
+      <c r="W6" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="118" t="s">
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="116" t="s">
         <v>134</v>
       </c>
       <c r="AB6" s="9"/>
@@ -5275,8 +5326,8 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="126"/>
       <c r="C7" t="s">
         <v>135</v>
       </c>
@@ -5290,14 +5341,14 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="119"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="117"/>
       <c r="AB7" s="13" t="s">
         <v>136</v>
       </c>
@@ -5308,8 +5359,8 @@
       <c r="AE7" s="15"/>
     </row>
     <row r="8" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
       <c r="C8" t="s">
         <v>137</v>
       </c>
@@ -5323,22 +5374,22 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="119"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="117"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="15"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="16" t="s">
         <v>138</v>
       </c>
@@ -5352,30 +5403,30 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="120"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="118"/>
       <c r="AB9" s="19"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="20"/>
     </row>
     <row r="10" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="109"/>
+      <c r="B10" s="121"/>
       <c r="C10" t="s">
         <v>131</v>
       </c>
@@ -5404,8 +5455,8 @@
       <c r="AE10" s="15"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" t="s">
         <v>140</v>
       </c>
@@ -5434,10 +5485,10 @@
       <c r="AE11" s="15"/>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="6" t="s">
         <v>142</v>
       </c>
@@ -5475,8 +5526,8 @@
       <c r="AE12" s="10"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="29" t="s">
         <v>143</v>
       </c>
@@ -5485,14 +5536,14 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="121" t="s">
+      <c r="I13" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30" t="s">
         <v>132</v>
@@ -5686,10 +5737,10 @@
       <c r="Y18" s="50"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="51" t="s">
         <v>159</v>
       </c>
@@ -5723,8 +5774,8 @@
       <c r="AE19" s="51"/>
     </row>
     <row r="20" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="51" t="s">
         <v>160</v>
       </c>
@@ -5758,8 +5809,8 @@
       <c r="AE20" s="51"/>
     </row>
     <row r="21" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="51" t="s">
         <v>161</v>
       </c>
@@ -5793,8 +5844,8 @@
       <c r="AE21" s="51"/>
     </row>
     <row r="22" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="51" t="s">
         <v>162</v>
       </c>
@@ -5828,8 +5879,8 @@
       <c r="AE22" s="51"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="54" t="s">
         <v>163</v>
       </c>
@@ -5863,8 +5914,8 @@
       <c r="AE23" s="51"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="51" t="s">
         <v>164</v>
       </c>
@@ -5898,8 +5949,8 @@
       <c r="AE24" s="51"/>
     </row>
     <row r="25" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="51" t="s">
         <v>165</v>
       </c>
@@ -5935,8 +5986,8 @@
       <c r="AE25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="51" t="s">
         <v>167</v>
       </c>
@@ -5973,17 +6024,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:B26"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="N6:P9"/>
+    <mergeCell ref="W6:Z9"/>
     <mergeCell ref="AA6:AA9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="I13:N13"/>
-    <mergeCell ref="A19:B26"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="N6:P9"/>
-    <mergeCell ref="W6:Z9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5992,734 +6043,734 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB6DE92-16E8-439F-9622-A8038251CE28}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.5703125" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="94.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.7109375" customWidth="1"/>
+    <col min="10" max="10" width="73.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="114"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1" s="74" t="s">
+      <c r="F1" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="97"/>
+      <c r="I1" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="139" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="113"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="139" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="113"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="J6" s="102" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="111"/>
+      <c r="C7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="77" t="s">
+      <c r="J8" s="77" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="111"/>
+      <c r="C9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="111" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I11" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="D12" s="75"/>
+    </row>
+    <row r="13" spans="1:10" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="D13" s="103"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="110" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="110"/>
+      <c r="C14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="110"/>
+      <c r="C15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="110"/>
+      <c r="C16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="110" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" s="110"/>
+      <c r="C17" t="s">
+        <v>485</v>
+      </c>
+      <c r="D17" s="75"/>
+      <c r="G17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="110" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="110"/>
+      <c r="C18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" t="s">
+        <v>294</v>
+      </c>
+      <c r="I18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="D20" s="99"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="110" t="s">
+        <v>446</v>
+      </c>
+      <c r="B21" s="110"/>
+      <c r="C21" t="s">
+        <v>486</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" t="s">
+        <v>472</v>
+      </c>
+      <c r="I21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" t="s">
+        <v>472</v>
+      </c>
+      <c r="J22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="C23" t="s">
+        <v>486</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" t="s">
+        <v>472</v>
+      </c>
+      <c r="J23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>486</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="110" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="I25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="110" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="110"/>
+      <c r="C27" t="s">
+        <v>487</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="H27" t="s">
+        <v>442</v>
+      </c>
+      <c r="I27" t="s">
+        <v>443</v>
+      </c>
+      <c r="J27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="110" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="110"/>
+      <c r="C28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" t="s">
+        <v>442</v>
+      </c>
+      <c r="J28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="110" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="110"/>
+      <c r="C29" t="s">
+        <v>487</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>301</v>
+      </c>
+      <c r="H29" t="s">
+        <v>442</v>
+      </c>
+      <c r="J29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="99"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="I32" t="s">
+        <v>440</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="111"/>
+      <c r="C33" t="s">
+        <v>463</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="112"/>
+      <c r="C34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="I34" t="s">
+        <v>441</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A35" s="111" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35" s="112"/>
+      <c r="C35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="111" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="112"/>
+      <c r="C36" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+    </row>
+    <row r="38" spans="1:11" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="D38" s="100"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="110" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="110"/>
+      <c r="C39" t="s">
+        <v>488</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" t="s">
+        <v>288</v>
+      </c>
+      <c r="H39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="110" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40" s="110"/>
+      <c r="C40" t="s">
+        <v>488</v>
+      </c>
+      <c r="D40" s="75"/>
+      <c r="H40" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="110" t="s">
+        <v>454</v>
+      </c>
+      <c r="B41" s="110"/>
+      <c r="C41" t="s">
+        <v>488</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>288</v>
+      </c>
+      <c r="H41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="110"/>
+      <c r="C42" t="s">
+        <v>488</v>
+      </c>
+      <c r="H42" t="s">
+        <v>375</v>
+      </c>
+      <c r="I42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="110" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" t="s">
+        <v>488</v>
+      </c>
+      <c r="I43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="99" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" s="99"/>
+      <c r="D45" s="100"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="B46" s="75"/>
+      <c r="J46" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="I3" s="104" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" t="s">
-        <v>495</v>
-      </c>
-      <c r="F7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+    <row r="47" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="111" t="s">
+        <v>458</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="D47" s="75"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="75" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48" s="75"/>
+      <c r="C48" t="s">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E8" t="s">
-        <v>495</v>
-      </c>
-      <c r="F8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="C9" s="76"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" t="s">
-        <v>499</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12" t="s">
-        <v>299</v>
-      </c>
-      <c r="F12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" t="s">
-        <v>499</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>459</v>
-      </c>
-      <c r="B14" t="s">
-        <v>499</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="F14" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" t="s">
-        <v>297</v>
-      </c>
-      <c r="F15" t="s">
-        <v>298</v>
-      </c>
-      <c r="H15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="101"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
-        <v>458</v>
-      </c>
-      <c r="B18" t="s">
-        <v>500</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" t="s">
-        <v>291</v>
-      </c>
-      <c r="G18" t="s">
-        <v>486</v>
-      </c>
-      <c r="H18" t="s">
-        <v>302</v>
-      </c>
-      <c r="I18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" t="s">
-        <v>486</v>
-      </c>
-      <c r="I19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" t="s">
-        <v>500</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="D20" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" t="s">
-        <v>486</v>
-      </c>
-      <c r="I20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="B21" t="s">
-        <v>500</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>309</v>
-      </c>
-      <c r="D21" t="s">
-        <v>304</v>
-      </c>
-      <c r="F21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" t="s">
-        <v>500</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
-        <v>409</v>
-      </c>
-      <c r="B23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C23" s="76"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
-        <v>410</v>
-      </c>
-      <c r="B24" t="s">
-        <v>500</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="H24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
-        <v>413</v>
-      </c>
-      <c r="B25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C25" s="76"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" t="s">
-        <v>501</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G27" t="s">
-        <v>454</v>
-      </c>
-      <c r="H27" t="s">
-        <v>455</v>
-      </c>
-      <c r="I27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="B28" t="s">
-        <v>501</v>
-      </c>
-      <c r="C28" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>305</v>
-      </c>
-      <c r="G28" t="s">
-        <v>454</v>
-      </c>
-      <c r="I28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" t="s">
-        <v>501</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" t="s">
-        <v>454</v>
-      </c>
-      <c r="I29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" t="s">
-        <v>476</v>
-      </c>
-      <c r="C36" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="H36" t="s">
-        <v>452</v>
-      </c>
-      <c r="I36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37" t="s">
-        <v>470</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="H37" t="s">
-        <v>453</v>
-      </c>
-      <c r="I37" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="B38" t="s">
-        <v>476</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" s="76" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
-        <v>465</v>
-      </c>
-      <c r="B39" t="s">
-        <v>470</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="H39" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>466</v>
-      </c>
-      <c r="B40" t="s">
-        <v>470</v>
-      </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-    </row>
-    <row r="42" spans="1:10" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="101" t="s">
-        <v>282</v>
-      </c>
-      <c r="C42" s="102"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
-        <v>283</v>
-      </c>
-      <c r="B43" t="s">
-        <v>502</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>372</v>
-      </c>
-      <c r="D43" t="s">
-        <v>312</v>
-      </c>
-      <c r="F43" t="s">
-        <v>292</v>
-      </c>
-      <c r="G43" t="s">
-        <v>373</v>
-      </c>
-      <c r="I43" t="s">
-        <v>374</v>
-      </c>
-      <c r="J43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="76" t="s">
-        <v>468</v>
-      </c>
-      <c r="B44" t="s">
-        <v>502</v>
-      </c>
-      <c r="C44" s="76"/>
-      <c r="G44" t="s">
+      <c r="D48" s="75"/>
+      <c r="I48" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="76" t="s">
-        <v>467</v>
-      </c>
-      <c r="B45" t="s">
-        <v>502</v>
-      </c>
-      <c r="C45" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="D45" t="s">
-        <v>312</v>
-      </c>
-      <c r="F45" t="s">
-        <v>292</v>
-      </c>
-      <c r="G45" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" t="s">
-        <v>502</v>
-      </c>
-      <c r="G46" t="s">
-        <v>381</v>
-      </c>
-      <c r="H46" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
-        <v>447</v>
-      </c>
-      <c r="B47" t="s">
-        <v>502</v>
-      </c>
-      <c r="H47" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="101" t="s">
-        <v>496</v>
-      </c>
-      <c r="C49" s="102"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
-        <v>449</v>
-      </c>
-      <c r="B50" t="s">
-        <v>484</v>
-      </c>
-      <c r="C50" s="76"/>
-      <c r="F50" t="s">
-        <v>451</v>
-      </c>
-      <c r="G50" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="I51" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="76" t="s">
-        <v>281</v>
-      </c>
-      <c r="I52" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="C53" s="76"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
-        <v>457</v>
-      </c>
-      <c r="B54" t="s">
-        <v>469</v>
-      </c>
-      <c r="C54" s="76"/>
-      <c r="H54" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+    <row r="49" spans="1:2" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="115" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="75"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="75"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6733,15 +6784,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A5813A-4D90-4745-8F85-7F83B257F42C}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" style="83" customWidth="1"/>
     <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -6749,143 +6800,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="133" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="G2" s="87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="G2" s="88" t="s">
+    </row>
+    <row r="6" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="G3" s="89" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="E4" s="64" t="s">
+    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="C10" s="85" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>407</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
-        <v>408</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>390</v>
-      </c>
-      <c r="F6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>387</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>389</v>
-      </c>
-      <c r="D7" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="B8" s="92" t="s">
+    </row>
+    <row r="11" spans="1:7" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="106" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
-        <v>395</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="D9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>398</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" t="s">
-        <v>391</v>
-      </c>
-      <c r="F11" t="s">
-        <v>464</v>
+      <c r="C11" s="107" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -6902,147 +6953,153 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" style="83" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="A1" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="F2" s="88" t="s">
-        <v>385</v>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="F2" s="87" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F3" s="89" t="s">
-        <v>418</v>
+      <c r="B3" s="83" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>383</v>
+      <c r="B4" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>377</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="86" t="s">
+      <c r="A5" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="135" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="134"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="134"/>
+    </row>
+    <row r="7" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="134"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="90"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="133" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
-        <v>420</v>
-      </c>
-      <c r="B6" s="123" t="s">
-        <v>416</v>
-      </c>
-      <c r="C6" s="123" t="s">
-        <v>419</v>
-      </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="124"/>
-    </row>
-    <row r="7" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="124"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="91"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="C9" s="86"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-    </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
-        <v>420</v>
-      </c>
-      <c r="B13" s="123" t="s">
-        <v>416</v>
-      </c>
-      <c r="C13" s="123" t="s">
-        <v>419</v>
+      <c r="A13" s="135" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7059,96 +7116,96 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" style="83" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="A1" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="F2" s="88" t="s">
-        <v>385</v>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="F2" s="87" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="95" t="s">
-        <v>428</v>
+      <c r="F3" s="94" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>383</v>
+      <c r="B4" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>377</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>429</v>
+        <v>394</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
-        <v>427</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>390</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>430</v>
+      <c r="A5" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="93" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>390</v>
+      <c r="A6" s="87"/>
+      <c r="B6" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="E7" s="85"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="E7" s="84"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="91"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="90"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="C10" s="86"/>
+      <c r="A10" s="87"/>
+      <c r="C10" s="85"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="91"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7160,203 +7217,209 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51ED8D1-C8E0-4962-8331-BF82FFE521F7}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="84" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="83" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>439</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="A1" s="133" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="F2" s="88" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="F2" s="87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="88"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>496</v>
+      </c>
+      <c r="E7" s="84"/>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>497</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="C10" s="85"/>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="90"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="133" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="133"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="83" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="89"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="C14" s="92" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>434</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" s="85"/>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>437</v>
-      </c>
-      <c r="B8" s="92" t="s">
+      <c r="B15" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="93" t="s">
         <v>436</v>
       </c>
-      <c r="C8" s="84" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>492</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="C10" s="86"/>
-      <c r="E10" s="84"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="91"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>444</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" s="94" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>436</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>391</v>
-      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
-        <v>488</v>
-      </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="92" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="84" t="s">
-        <v>493</v>
+      <c r="B19" s="83" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
+        <v>477</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="91" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A12:C13"/>
-    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="A17:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7368,7 +7431,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7380,77 +7443,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="A1" s="133"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="3" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
-        <v>478</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>473</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93" t="s">
-        <v>477</v>
+      <c r="A3" s="92" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
-        <v>482</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>474</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>475</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>483</v>
+      <c r="A5" s="92" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="100" t="s">
-        <v>481</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>480</v>
-      </c>
-      <c r="D6" s="93"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="98" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="93"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7462,15 +7525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unit Collaboration Document" ma:contentTypeID="0x0101007A60771C5753A247A9E629B69FD0F51E0900DA83BD33D1BD5F499F5E013874523AC6" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="566219fd3e1a9f90792df2b923da5c4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25b90b72-1b31-4ccc-b6dc-1de965df93ee" xmlns:ns3="2af3b793-b434-4d1f-abd1-55ce4b5242b1" xmlns:ns4="92694e41-13eb-48d2-9fc1-df6fd5b71203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="095437bbfdffabe8b49b58a8892c1ad7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="25b90b72-1b31-4ccc-b6dc-1de965df93ee"/>
@@ -7704,6 +7758,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7723,14 +7786,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BF4C68-C28B-4DB7-AEBC-8CC2AF90A786}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96790E17-23A0-4FF5-A58B-CDD527504B73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7746,6 +7801,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BF4C68-C28B-4DB7-AEBC-8CC2AF90A786}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
